--- a/output/fit_clients/fit_round_170.xlsx
+++ b/output/fit_clients/fit_round_170.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2218894069.505384</v>
+        <v>2346387369.544949</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08338793426383306</v>
+        <v>0.09899047664954619</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03168351426007277</v>
+        <v>0.04330915502831366</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1109447059.783337</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1881998922.69518</v>
+        <v>1913178082.360794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1831633177306431</v>
+        <v>0.1303429616224261</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04394295636638671</v>
+        <v>0.04787475828738417</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>940999483.0985289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4409133788.012624</v>
+        <v>4365433468.419129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1230919309433609</v>
+        <v>0.159147856924491</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03711964416060498</v>
+        <v>0.02936508565181216</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>61</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2204566937.1351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4181999757.641262</v>
+        <v>3582096445.578996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07933185711128714</v>
+        <v>0.1070990306821877</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04016922050787764</v>
+        <v>0.05036457251535933</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2090999870.479113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1788104110.319114</v>
+        <v>1891205205.83005</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1423558528719699</v>
+        <v>0.1141054479308038</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03809138773080679</v>
+        <v>0.04178313831007866</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>894052107.6623741</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3020896824.089491</v>
+        <v>2670437245.409536</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08558240794728247</v>
+        <v>0.07405329668938176</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03127211757283778</v>
+        <v>0.04908834217035405</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>53</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1510448374.950118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3414326339.067501</v>
+        <v>2414588647.522944</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1705525301787096</v>
+        <v>0.1473294560325002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03211326371564206</v>
+        <v>0.02489605484196267</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>54</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1707163269.373245</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2134017277.882496</v>
+        <v>2302640396.737073</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1541324356788336</v>
+        <v>0.164622592768237</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03292167315453092</v>
+        <v>0.03369255160470722</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1067008646.931425</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4861747805.59784</v>
+        <v>5864678655.844739</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1657908349177628</v>
+        <v>0.1905483930770494</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04925662446277883</v>
+        <v>0.04658709324011635</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>71</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2430873991.367113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3990835164.081809</v>
+        <v>2900685640.690773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1262636135917318</v>
+        <v>0.1915501739489375</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04425558294105521</v>
+        <v>0.04417284112449687</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>70</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1995417594.039392</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3262041248.138323</v>
+        <v>2645818781.56488</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1781829514171303</v>
+        <v>0.1288563571859454</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03592630156993511</v>
+        <v>0.04402065427528249</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>59</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1631020666.053068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4015422838.624434</v>
+        <v>3576702090.754395</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09313579283627396</v>
+        <v>0.09371837368205563</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01891704321729404</v>
+        <v>0.03076616239716797</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>57</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2007711473.435384</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3080810759.578394</v>
+        <v>2627485380.46975</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1167512457885477</v>
+        <v>0.1364869761307235</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0415008810967953</v>
+        <v>0.02923812224729285</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>54</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1540405408.352405</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1367744024.646737</v>
+        <v>1212875464.267799</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0706031143806211</v>
+        <v>0.0787174212615681</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0400193221845072</v>
+        <v>0.04510583624160465</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>683872067.812555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2166986236.759242</v>
+        <v>2111812505.532308</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1139874310942909</v>
+        <v>0.1120567422794504</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04157729389980673</v>
+        <v>0.04826402063962121</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>26</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1083493178.922372</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4168819662.283049</v>
+        <v>4613932476.394552</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1251420069998218</v>
+        <v>0.1109934114113845</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04908504520538089</v>
+        <v>0.03398805235711459</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>49</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2084409857.318385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3576901729.151164</v>
+        <v>3822393995.706377</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1586434495795645</v>
+        <v>0.1472740001542078</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02958679431289357</v>
+        <v>0.02264720979271198</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>56</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1788450852.999137</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>954579166.6583405</v>
+        <v>1179802828.745505</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1646428293065617</v>
+        <v>0.182516591078613</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02345292528036137</v>
+        <v>0.02255782225666713</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>477289601.4871653</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2362499512.368214</v>
+        <v>2467042056.042809</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1618361206620577</v>
+        <v>0.09842396112932705</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02046210256874823</v>
+        <v>0.03115040157557671</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>28</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1181249743.87566</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2021442880.633551</v>
+        <v>2371269532.680149</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09445001105359475</v>
+        <v>0.09091531184211517</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03378328934785138</v>
+        <v>0.03188287979225053</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1010721474.199318</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2749598791.582763</v>
+        <v>3465211077.003749</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1033948981049954</v>
+        <v>0.1365385056939729</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04627661168603953</v>
+        <v>0.05023332491019103</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1374799472.285995</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1400261876.811274</v>
+        <v>987471976.3228415</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1428598229706041</v>
+        <v>0.1360665452930153</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03967165678410043</v>
+        <v>0.04254125651909337</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>700130941.114253</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3517163744.708979</v>
+        <v>3589044485.851943</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09313491491670325</v>
+        <v>0.1402708849483898</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03740318544842029</v>
+        <v>0.02401644657150011</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1758581872.763311</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1428896990.937155</v>
+        <v>1417493434.885302</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09755134225633037</v>
+        <v>0.1167377878279905</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02304879904844708</v>
+        <v>0.02882395048831235</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>714448460.74599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>931266554.6753978</v>
+        <v>968644478.0200955</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08451153209130396</v>
+        <v>0.124005108701568</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03644792427807968</v>
+        <v>0.03744496180802306</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>465633232.6097578</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3691486524.127869</v>
+        <v>4085162978.887356</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1134529026135012</v>
+        <v>0.1268623945469857</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02296404398434463</v>
+        <v>0.02663408584900849</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1845743287.510196</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3012813603.158153</v>
+        <v>3174512061.888433</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09235766408328061</v>
+        <v>0.1352090339915855</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04778903488030626</v>
+        <v>0.04721568131656765</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>55</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1506406813.880275</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3955929248.463391</v>
+        <v>4130064489.09613</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1445669667353195</v>
+        <v>0.1499977508338267</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0414764803093425</v>
+        <v>0.04543264793396148</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1977964644.089345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2059915195.20175</v>
+        <v>2243365848.670058</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09281810304685588</v>
+        <v>0.1397655293546892</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03533162599972278</v>
+        <v>0.02900284837736406</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1029957641.83085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>905795136.8308703</v>
+        <v>1150908790.397736</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06758717183388041</v>
+        <v>0.1018426566410566</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03844732492013116</v>
+        <v>0.03746725314826914</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>452897589.1003333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1573167784.862605</v>
+        <v>1365525656.76925</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1181533314609945</v>
+        <v>0.09195167527880335</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03186358631265275</v>
+        <v>0.0324537532151866</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>786583975.9165965</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3026726916.17308</v>
+        <v>2805517893.349523</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1420105819134878</v>
+        <v>0.1602692523870594</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03784461684551585</v>
+        <v>0.05241710841783654</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>51</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1513363451.391934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>984195238.3554686</v>
+        <v>947688523.6822214</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09226886114033232</v>
+        <v>0.09679426480238937</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02801362066290204</v>
+        <v>0.02459644038051568</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>492097659.6035632</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1003560886.863933</v>
+        <v>862182289.9118594</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08084056602898033</v>
+        <v>0.1165081014098509</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03432774285296855</v>
+        <v>0.0442178629349546</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>501780461.2002203</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2605713268.982082</v>
+        <v>2781934442.024059</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1573057734800459</v>
+        <v>0.1322027106765658</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02459165966007145</v>
+        <v>0.02564847081245543</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1302856647.976309</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2847279142.289686</v>
+        <v>1847138628.253844</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08994905856656642</v>
+        <v>0.08247562726627604</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03952608054517383</v>
+        <v>0.03383446803319744</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>47</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1423639714.979075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1856326539.574917</v>
+        <v>1801753396.923245</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09235927449809855</v>
+        <v>0.1085792053976045</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02957490993342914</v>
+        <v>0.0269834966153809</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>928163268.6783167</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1471162101.894303</v>
+        <v>1857160355.687279</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1620359627142229</v>
+        <v>0.1665718479373413</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02953965592154786</v>
+        <v>0.02165255829673064</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>735581125.7483649</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1819905943.634312</v>
+        <v>1805099342.409951</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1363887746167834</v>
+        <v>0.1274833642904328</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04128915447094209</v>
+        <v>0.04456921874240283</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>909952857.8796791</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2146045367.426854</v>
+        <v>1997306456.580649</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1158579938887718</v>
+        <v>0.1489464164986558</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02914245113180124</v>
+        <v>0.03227197002526411</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1073022743.593038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4225225830.611153</v>
+        <v>4271010570.794351</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09057347913625434</v>
+        <v>0.1234309350940663</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03012988458612332</v>
+        <v>0.03649977142105242</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2112612960.068167</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2295237706.628119</v>
+        <v>2537093410.308255</v>
       </c>
       <c r="F43" t="n">
-        <v>0.187550899921783</v>
+        <v>0.1649725021055574</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01693609523678416</v>
+        <v>0.01659075998180059</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>59</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1147618922.547972</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2196897548.141832</v>
+        <v>1881262230.412185</v>
       </c>
       <c r="F44" t="n">
-        <v>0.069440179071171</v>
+        <v>0.08774589299694943</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02782306631658125</v>
+        <v>0.02620552730890673</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1098448919.666663</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1577130510.227483</v>
+        <v>1622331717.995276</v>
       </c>
       <c r="F45" t="n">
-        <v>0.185094412382856</v>
+        <v>0.1367727454820246</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04615462599081171</v>
+        <v>0.04303031977530437</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>788565203.3175554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5078346392.67048</v>
+        <v>4480769582.031007</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1198392128815962</v>
+        <v>0.1144233668961795</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04101354400231714</v>
+        <v>0.05814397274736989</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>61</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2539173227.587692</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4238238469.867183</v>
+        <v>3973977766.674541</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2018534270548026</v>
+        <v>0.1947295924505044</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0381972961153639</v>
+        <v>0.05410776576955625</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>45</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2119119247.524206</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2956496245.243623</v>
+        <v>4690040311.350868</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06776238908088569</v>
+        <v>0.09601033553676087</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02516789396271032</v>
+        <v>0.03903514930861735</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1478248217.60028</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1509737609.493476</v>
+        <v>1755056443.514533</v>
       </c>
       <c r="F49" t="n">
-        <v>0.132721789866898</v>
+        <v>0.122653037255484</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04133081640048694</v>
+        <v>0.03244190282975552</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>754868835.2340605</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3864663679.67351</v>
+        <v>3939145979.195216</v>
       </c>
       <c r="F50" t="n">
-        <v>0.177373388899776</v>
+        <v>0.1262780029386081</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03496764140319773</v>
+        <v>0.03904183128132338</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>58</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1932331838.114275</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1072773518.950688</v>
+        <v>1430457202.048733</v>
       </c>
       <c r="F51" t="n">
-        <v>0.149176222453817</v>
+        <v>0.1262164101312004</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04147610445689431</v>
+        <v>0.0533293761710224</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>536386831.6017609</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3766442566.96224</v>
+        <v>4677683599.038631</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09802550713419572</v>
+        <v>0.09334231472913539</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06022259889714255</v>
+        <v>0.05281637905616674</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>70</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1883221353.674413</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2484906173.841681</v>
+        <v>3064277092.757456</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1384795710240769</v>
+        <v>0.1821362120679825</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02755448897823129</v>
+        <v>0.03405312699281134</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>49</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1242453154.900754</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4354173730.884637</v>
+        <v>4418076574.272099</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1206135049258244</v>
+        <v>0.1286634455747921</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04773416797319046</v>
+        <v>0.04791211008016805</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>55</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2177086957.297663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3144452639.083718</v>
+        <v>4597306577.645995</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1935353289585955</v>
+        <v>0.159338688555639</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02571685811672413</v>
+        <v>0.02790349959851978</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1572226256.679268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1608067735.542408</v>
+        <v>1269954494.835692</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1343260672671297</v>
+        <v>0.1390377919893645</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04434108536365674</v>
+        <v>0.03934725312032226</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>804033893.9853654</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4146949040.198541</v>
+        <v>4526246369.051532</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1751686181338694</v>
+        <v>0.1768704111183188</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02089813031431047</v>
+        <v>0.02615100256307621</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2073474620.780947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1726802073.978621</v>
+        <v>1375143031.921578</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1410865449088113</v>
+        <v>0.182727749139677</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02675355272181489</v>
+        <v>0.02894714450110948</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>863401047.4079806</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5154984816.264261</v>
+        <v>3413233154.89251</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08101543365659114</v>
+        <v>0.1252219124303544</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04718272846785112</v>
+        <v>0.04750774033999246</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2577492328.352322</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3477516386.618381</v>
+        <v>3046137114.127272</v>
       </c>
       <c r="F60" t="n">
-        <v>0.17664577241848</v>
+        <v>0.1726412442761391</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02726699507173269</v>
+        <v>0.02748675688902087</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1738758313.710219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2137935140.534044</v>
+        <v>2169286088.603989</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1307944775532094</v>
+        <v>0.1777701687190111</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03014452895596152</v>
+        <v>0.03312057513363512</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>57</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1068967632.001152</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1352192759.392834</v>
+        <v>1294037479.135475</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1388312067330232</v>
+        <v>0.1348081431572718</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03473850063850032</v>
+        <v>0.0301948875527477</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>676096340.5599368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4170890907.771695</v>
+        <v>4347908448.63204</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06694720180648026</v>
+        <v>0.1026965677103324</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0455128605623576</v>
+        <v>0.0362424641657792</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>48</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2085445508.609658</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3772670546.286413</v>
+        <v>5224364673.16026</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1733374286805991</v>
+        <v>0.1436986779166459</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0287047170345135</v>
+        <v>0.02776885812468383</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>53</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1886335292.973748</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4306471553.335754</v>
+        <v>5429672392.655372</v>
       </c>
       <c r="F65" t="n">
-        <v>0.143228654625829</v>
+        <v>0.1193438106485675</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03147048075473702</v>
+        <v>0.03003745206187755</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>62</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2153235776.926803</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4816624909.650694</v>
+        <v>4415411619.507038</v>
       </c>
       <c r="F66" t="n">
-        <v>0.161642225748668</v>
+        <v>0.1568439555356865</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03741441066608795</v>
+        <v>0.04171780276638713</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>49</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2408312472.11597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2818121920.68628</v>
+        <v>3093240359.952687</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06589141966383691</v>
+        <v>0.06442426759657441</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04171679373324105</v>
+        <v>0.05094255910542208</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>54</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1409060993.980178</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4450646867.544547</v>
+        <v>4762100628.600019</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1327802431944839</v>
+        <v>0.1419204795089291</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04849017001941042</v>
+        <v>0.03602808520251287</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>54</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2225323456.834862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2194474741.79647</v>
+        <v>2283691223.727516</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1252456675151664</v>
+        <v>0.1518899530866975</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05851611351288034</v>
+        <v>0.03810742018005046</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1097237400.964258</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3464648187.550106</v>
+        <v>2423219928.884089</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07054326221660148</v>
+        <v>0.07154241019360023</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03875172957305115</v>
+        <v>0.04329885804329385</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>48</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1732324100.98011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4785151633.883665</v>
+        <v>5256075504.458286</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1416484849238949</v>
+        <v>0.1344787423108621</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03036931881322789</v>
+        <v>0.02242920296452923</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>62</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2392575906.579251</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1414079896.381336</v>
+        <v>1822429901.650802</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09958817165440501</v>
+        <v>0.09758745604257067</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05275019810409016</v>
+        <v>0.04980540043290604</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>707039989.017246</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3316435530.664761</v>
+        <v>2813494030.875861</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07336971776007915</v>
+        <v>0.09359897586450799</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05115905162702254</v>
+        <v>0.04169289379935615</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>65</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1658217732.313568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2583519751.417348</v>
+        <v>3988856998.727217</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1539881674827476</v>
+        <v>0.1710550566344352</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02824807577912969</v>
+        <v>0.02760653147989086</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>58</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1291759977.043147</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1650204055.410387</v>
+        <v>1712455672.436918</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1231482848146684</v>
+        <v>0.1630682490040063</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03471405729202075</v>
+        <v>0.03423752920102572</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>825102024.6533651</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4091227026.749273</v>
+        <v>5319181981.123532</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1063820869902827</v>
+        <v>0.08151775284992316</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02514126404270791</v>
+        <v>0.02675398273844835</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2045613501.912971</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2241999856.719033</v>
+        <v>1702141069.82181</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1416877766111957</v>
+        <v>0.1130278214530494</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02010144511399672</v>
+        <v>0.02156581453431592</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1121000025.560295</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3512229055.10423</v>
+        <v>3109750561.112527</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09212085236301654</v>
+        <v>0.1017289726949437</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04090143886289782</v>
+        <v>0.0410597010756403</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>60</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1756114528.167735</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1320578154.427786</v>
+        <v>1196766317.602785</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1535896003231616</v>
+        <v>0.1067073934308591</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02620434195728813</v>
+        <v>0.03483461985392614</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>660289079.9819484</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5030552025.127875</v>
+        <v>3428367280.065672</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07416395635004303</v>
+        <v>0.1079779251422756</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02587172350988529</v>
+        <v>0.02646883519885763</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>35</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2515276063.257503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3866545380.602689</v>
+        <v>4532802435.713283</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1270830852237871</v>
+        <v>0.1191104314673189</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03168354085067113</v>
+        <v>0.03265130045785508</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1933272648.542161</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5131481310.722964</v>
+        <v>3656302816.694921</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1529871472656857</v>
+        <v>0.2055686341847608</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02690577588042718</v>
+        <v>0.02172906055595852</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2565740631.952759</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1761265070.314947</v>
+        <v>2023440740.283983</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1065649245713909</v>
+        <v>0.1445836827465281</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04426428703385447</v>
+        <v>0.03891268453518503</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>880632490.7443093</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1794134685.47173</v>
+        <v>2116255624.928533</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07583864073395567</v>
+        <v>0.1125062157345841</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03282408152592924</v>
+        <v>0.03192470411662073</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>897067377.8438164</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3062726743.466593</v>
+        <v>3620333934.184959</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1135392373160324</v>
+        <v>0.16578531798592</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04020993597783531</v>
+        <v>0.05480192763375719</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>64</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1531363438.769444</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2777664185.47774</v>
+        <v>2413812783.249904</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1081780937804965</v>
+        <v>0.1062626245874064</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02184837589806005</v>
+        <v>0.0214032731406155</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1388832228.488206</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1059978519.256716</v>
+        <v>999359380.2127908</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1423200820455719</v>
+        <v>0.1661558100822505</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03011337119142003</v>
+        <v>0.03712080096322816</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>529989279.2902627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2844931470.746406</v>
+        <v>3534793119.922951</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1727028553925417</v>
+        <v>0.1745324866939965</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03160140995819936</v>
+        <v>0.03872213673978438</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>67</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1422465750.467012</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3150679013.456254</v>
+        <v>2407095442.088866</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1486170853920625</v>
+        <v>0.1469117285359948</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03314891020174651</v>
+        <v>0.03877693388137811</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1575339533.775622</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1627510097.032698</v>
+        <v>2042720093.386142</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09500143743126926</v>
+        <v>0.1381707103400287</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04037877139239191</v>
+        <v>0.04718457732602081</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>813755050.5547132</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1520153525.81755</v>
+        <v>1679457550.171063</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1326042606836973</v>
+        <v>0.1794031248993193</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05086460280098576</v>
+        <v>0.05511646851944752</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>760076799.1131959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2873896725.183587</v>
+        <v>2150851859.423723</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07006219613392235</v>
+        <v>0.08339201615700882</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04441455853381777</v>
+        <v>0.03805350818229125</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>41</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1436948374.751522</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3874261169.950941</v>
+        <v>4156239297.101866</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09821567712294978</v>
+        <v>0.1269850104957734</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03506263184546226</v>
+        <v>0.03971530899985649</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>50</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1937130593.71059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2284926491.37559</v>
+        <v>2306291393.931122</v>
       </c>
       <c r="F94" t="n">
-        <v>0.122228796214451</v>
+        <v>0.1594046787664302</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03746988035386915</v>
+        <v>0.02845717356926922</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1142463281.15109</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2051417471.471752</v>
+        <v>2151074581.085201</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1181510081420688</v>
+        <v>0.1176966448927596</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04353335899415418</v>
+        <v>0.04838374638448575</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>40</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1025708804.430083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1743798910.302463</v>
+        <v>2338423239.401396</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09241314542067368</v>
+        <v>0.08585445855300985</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0321183536653056</v>
+        <v>0.02921009861599108</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>871899469.4468744</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3924263870.97945</v>
+        <v>3798893861.014423</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1429635847404491</v>
+        <v>0.1541126921653574</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02628749726698367</v>
+        <v>0.02296108571758584</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>58</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1962131985.74914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3599083287.624135</v>
+        <v>2401442002.307897</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09768401406162372</v>
+        <v>0.1285498979707384</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02832187381142154</v>
+        <v>0.03050997325449454</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>45</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1799541669.118983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3355057799.463947</v>
+        <v>3066115513.737379</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09392650351136805</v>
+        <v>0.142407583614792</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03105899583713783</v>
+        <v>0.03025012105005675</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1677528911.361985</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4286381743.169766</v>
+        <v>4465915694.131602</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1155250599857579</v>
+        <v>0.1745864884484467</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01856609035047597</v>
+        <v>0.02767572472840908</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>52</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2143190965.07752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3252276376.661321</v>
+        <v>3222442454.234569</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1765597355792539</v>
+        <v>0.1740902123790025</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03967171991788652</v>
+        <v>0.03525887867565882</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>69</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1626138310.735618</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_170.xlsx
+++ b/output/fit_clients/fit_round_170.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2346387369.544949</v>
+        <v>1684666107.443217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09899047664954619</v>
+        <v>0.09873235076333113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04330915502831366</v>
+        <v>0.02744821107948608</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1913178082.360794</v>
+        <v>2487393329.447701</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1303429616224261</v>
+        <v>0.1729606667900178</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04787475828738417</v>
+        <v>0.03556114738931296</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4365433468.419129</v>
+        <v>3231871534.795249</v>
       </c>
       <c r="F4" t="n">
-        <v>0.159147856924491</v>
+        <v>0.1048122144154527</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02936508565181216</v>
+        <v>0.02512505357859493</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3582096445.578996</v>
+        <v>2641694590.969803</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1070990306821877</v>
+        <v>0.1042252389451303</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05036457251535933</v>
+        <v>0.04088175898010118</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1891205205.83005</v>
+        <v>2523735828.585692</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1141054479308038</v>
+        <v>0.1335569720008142</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04178313831007866</v>
+        <v>0.05535597455624033</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2670437245.409536</v>
+        <v>2817009673.479422</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07405329668938176</v>
+        <v>0.06864502217296685</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04908834217035405</v>
+        <v>0.04391258721814144</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2414588647.522944</v>
+        <v>3395298386.143531</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1473294560325002</v>
+        <v>0.1711838109595032</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02489605484196267</v>
+        <v>0.0206904008039489</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2302640396.737073</v>
+        <v>2219764558.832477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.164622592768237</v>
+        <v>0.1370261923821199</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03369255160470722</v>
+        <v>0.02420898307438582</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5864678655.844739</v>
+        <v>5710788708.573225</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1905483930770494</v>
+        <v>0.1745832458266907</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04658709324011635</v>
+        <v>0.03872622626928538</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2900685640.690773</v>
+        <v>3693628377.78932</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1915501739489375</v>
+        <v>0.1204565320562566</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04417284112449687</v>
+        <v>0.03918956264532961</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2645818781.56488</v>
+        <v>2603422880.349855</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1288563571859454</v>
+        <v>0.1821804520018939</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04402065427528249</v>
+        <v>0.03975915762013284</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3576702090.754395</v>
+        <v>3614673479.884054</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09371837368205563</v>
+        <v>0.1011949069777948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03076616239716797</v>
+        <v>0.02593983159679859</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2627485380.46975</v>
+        <v>3301904059.684021</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1364869761307235</v>
+        <v>0.1377955036702195</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02923812224729285</v>
+        <v>0.02850146649008474</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1212875464.267799</v>
+        <v>1790403085.48139</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0787174212615681</v>
+        <v>0.09039972189951478</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04510583624160465</v>
+        <v>0.03707771935428214</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2111812505.532308</v>
+        <v>1909639872.048292</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1120567422794504</v>
+        <v>0.09780438476806559</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04826402063962121</v>
+        <v>0.03422267162942363</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4613932476.394552</v>
+        <v>4040630379.654673</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1109934114113845</v>
+        <v>0.1642669100421715</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03398805235711459</v>
+        <v>0.04436870397906087</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3822393995.706377</v>
+        <v>3744928987.567765</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1472740001542078</v>
+        <v>0.1118630068121775</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02264720979271198</v>
+        <v>0.03359721731413193</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1179802828.745505</v>
+        <v>1149453105.405686</v>
       </c>
       <c r="F19" t="n">
-        <v>0.182516591078613</v>
+        <v>0.1377681670402858</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02255782225666713</v>
+        <v>0.01913412266013582</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2467042056.042809</v>
+        <v>2598282962.986762</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09842396112932705</v>
+        <v>0.1360957422274551</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03115040157557671</v>
+        <v>0.02080832900550153</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2371269532.680149</v>
+        <v>2561261951.497887</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09091531184211517</v>
+        <v>0.08339454291321126</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03188287979225053</v>
+        <v>0.03814462842495826</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3465211077.003749</v>
+        <v>3757723738.470323</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1365385056939729</v>
+        <v>0.09953882100318411</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05023332491019103</v>
+        <v>0.04010149295175516</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>987471976.3228415</v>
+        <v>946988977.7448636</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1360665452930153</v>
+        <v>0.15703154749995</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04254125651909337</v>
+        <v>0.03552819256947234</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3589044485.851943</v>
+        <v>4088374574.846271</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1402708849483898</v>
+        <v>0.139828476570442</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02401644657150011</v>
+        <v>0.03580270653989898</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1417493434.885302</v>
+        <v>1407860532.510323</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1167377878279905</v>
+        <v>0.1034476998461622</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02882395048831235</v>
+        <v>0.02823931840678214</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>968644478.0200955</v>
+        <v>886437784.6348066</v>
       </c>
       <c r="F26" t="n">
-        <v>0.124005108701568</v>
+        <v>0.08888469782688072</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03744496180802306</v>
+        <v>0.03800618371387917</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4085162978.887356</v>
+        <v>4495914022.333637</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1268623945469857</v>
+        <v>0.1026837004270282</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02663408584900849</v>
+        <v>0.02091123851199785</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3174512061.888433</v>
+        <v>2421169426.132188</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1352090339915855</v>
+        <v>0.1209437455921156</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04721568131656765</v>
+        <v>0.03190094927550503</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4130064489.09613</v>
+        <v>3828401849.346516</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1499977508338267</v>
+        <v>0.1486849132460191</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04543264793396148</v>
+        <v>0.04428571101575431</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2243365848.670058</v>
+        <v>2035620056.703709</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1397655293546892</v>
+        <v>0.1037283992679957</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02900284837736406</v>
+        <v>0.03015287217861057</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1150908790.397736</v>
+        <v>1357047425.501935</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1018426566410566</v>
+        <v>0.1066965546201131</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03746725314826914</v>
+        <v>0.04872932084097367</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1365525656.76925</v>
+        <v>1605785969.994237</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09195167527880335</v>
+        <v>0.08045663864069759</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0324537532151866</v>
+        <v>0.02578403188916324</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2805517893.349523</v>
+        <v>2263316074.001583</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1602692523870594</v>
+        <v>0.1774542700778897</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05241710841783654</v>
+        <v>0.04452413134545455</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>947688523.6822214</v>
+        <v>1002318392.561622</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09679426480238937</v>
+        <v>0.1206116129219071</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02459644038051568</v>
+        <v>0.02206547982874181</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>862182289.9118594</v>
+        <v>1267772858.021125</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1165081014098509</v>
+        <v>0.1113794054227738</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0442178629349546</v>
+        <v>0.03989627325561258</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2781934442.024059</v>
+        <v>2565190468.371792</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1322027106765658</v>
+        <v>0.1742369779647343</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02564847081245543</v>
+        <v>0.01850517360478954</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1847138628.253844</v>
+        <v>2542948291.790184</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08247562726627604</v>
+        <v>0.07901784800711337</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03383446803319744</v>
+        <v>0.03992713543971636</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1801753396.923245</v>
+        <v>1390119030.662764</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1085792053976045</v>
+        <v>0.1078347796171539</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0269834966153809</v>
+        <v>0.02507881859679142</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1857160355.687279</v>
+        <v>1995164682.229089</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1665718479373413</v>
+        <v>0.1629342254223198</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02165255829673064</v>
+        <v>0.03156127421526757</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1805099342.409951</v>
+        <v>1135620904.861778</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1274833642904328</v>
+        <v>0.1216921855857701</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04456921874240283</v>
+        <v>0.05111344725324454</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1997306456.580649</v>
+        <v>2247065490.903441</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1489464164986558</v>
+        <v>0.1051860933269819</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03227197002526411</v>
+        <v>0.04324338062774588</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4271010570.794351</v>
+        <v>3821041668.394934</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1234309350940663</v>
+        <v>0.07953099741400996</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03649977142105242</v>
+        <v>0.0379701635641438</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2537093410.308255</v>
+        <v>2441379564.191648</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1649725021055574</v>
+        <v>0.1630585701126046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01659075998180059</v>
+        <v>0.02407544322852336</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1881262230.412185</v>
+        <v>1893843641.995869</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08774589299694943</v>
+        <v>0.0885824377707394</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02620552730890673</v>
+        <v>0.02467312273781826</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1622331717.995276</v>
+        <v>2423780421.745451</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1367727454820246</v>
+        <v>0.1241195093926158</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04303031977530437</v>
+        <v>0.05579020378604004</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4480769582.031007</v>
+        <v>4181167617.861334</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1144233668961795</v>
+        <v>0.1101422122894386</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05814397274736989</v>
+        <v>0.05816786460152928</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3973977766.674541</v>
+        <v>5031049881.173019</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1947295924505044</v>
+        <v>0.1281146400697817</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05410776576955625</v>
+        <v>0.05451305705426202</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4690040311.350868</v>
+        <v>2977558117.665329</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09601033553676087</v>
+        <v>0.07682260779381461</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03903514930861735</v>
+        <v>0.02999605190808796</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1755056443.514533</v>
+        <v>1751633679.173873</v>
       </c>
       <c r="F49" t="n">
-        <v>0.122653037255484</v>
+        <v>0.1565332561989568</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03244190282975552</v>
+        <v>0.027125884692898</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3939145979.195216</v>
+        <v>3865856427.627355</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1262780029386081</v>
+        <v>0.1689243228406513</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03904183128132338</v>
+        <v>0.05117864202262938</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1430457202.048733</v>
+        <v>1140722286.888072</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1262164101312004</v>
+        <v>0.1839198645141115</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0533293761710224</v>
+        <v>0.04693257966719529</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4677683599.038631</v>
+        <v>5040341630.720068</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09334231472913539</v>
+        <v>0.1207981559019586</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05281637905616674</v>
+        <v>0.05240565939275473</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3064277092.757456</v>
+        <v>2653602411.811142</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1821362120679825</v>
+        <v>0.1775574389593149</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03405312699281134</v>
+        <v>0.02851996068647093</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4418076574.272099</v>
+        <v>3938206445.239832</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1286634455747921</v>
+        <v>0.1492869402637131</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04791211008016805</v>
+        <v>0.05001274601793987</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4597306577.645995</v>
+        <v>3057756411.996283</v>
       </c>
       <c r="F55" t="n">
-        <v>0.159338688555639</v>
+        <v>0.1830438693791411</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02790349959851978</v>
+        <v>0.02430085007519213</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1269954494.835692</v>
+        <v>1811722983.041623</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1390377919893645</v>
+        <v>0.163475855822565</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03934725312032226</v>
+        <v>0.03970419715891274</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4526246369.051532</v>
+        <v>4198766231.285675</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1768704111183188</v>
+        <v>0.1419190286925927</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02615100256307621</v>
+        <v>0.02495132624555872</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1375143031.921578</v>
+        <v>1569212863.325446</v>
       </c>
       <c r="F58" t="n">
-        <v>0.182727749139677</v>
+        <v>0.1602065897211412</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02894714450110948</v>
+        <v>0.03931299079930744</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3413233154.89251</v>
+        <v>4232317841.138841</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1252219124303544</v>
+        <v>0.1165842145113288</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04750774033999246</v>
+        <v>0.04442372791910087</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3046137114.127272</v>
+        <v>3170747969.149697</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1726412442761391</v>
+        <v>0.1851750103668002</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02748675688902087</v>
+        <v>0.0284259414602024</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2169286088.603989</v>
+        <v>2874351714.973248</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1777701687190111</v>
+        <v>0.1376759842568693</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03312057513363512</v>
+        <v>0.0214375591544913</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1294037479.135475</v>
+        <v>1313381609.962924</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1348081431572718</v>
+        <v>0.1647569887013354</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0301948875527477</v>
+        <v>0.04341325238053936</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4347908448.63204</v>
+        <v>4166389650.202704</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1026965677103324</v>
+        <v>0.1052553451823804</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0362424641657792</v>
+        <v>0.03591696626024381</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5224364673.16026</v>
+        <v>5158537815.68036</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1436986779166459</v>
+        <v>0.1689763775735837</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02776885812468383</v>
+        <v>0.02943552866300289</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5429672392.655372</v>
+        <v>5979409378.130845</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1193438106485675</v>
+        <v>0.1688132020253198</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03003745206187755</v>
+        <v>0.02915457689177243</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4415411619.507038</v>
+        <v>4771619181.84558</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1568439555356865</v>
+        <v>0.1171170069282663</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04171780276638713</v>
+        <v>0.04721094530545544</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3093240359.952687</v>
+        <v>3281657368.748603</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06442426759657441</v>
+        <v>0.0893522560515667</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05094255910542208</v>
+        <v>0.03131466397479685</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4762100628.600019</v>
+        <v>5554659745.017065</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1419204795089291</v>
+        <v>0.1031283862445761</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03602808520251287</v>
+        <v>0.04260599749748174</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2283691223.727516</v>
+        <v>1614998347.782265</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1518899530866975</v>
+        <v>0.138897880272875</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03810742018005046</v>
+        <v>0.05711523739377651</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2423219928.884089</v>
+        <v>2599984888.490036</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07154241019360023</v>
+        <v>0.1007922763082937</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04329885804329385</v>
+        <v>0.03050866934248007</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5256075504.458286</v>
+        <v>3959161401.715961</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1344787423108621</v>
+        <v>0.1422468571214827</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02242920296452923</v>
+        <v>0.02454085591968525</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1822429901.650802</v>
+        <v>1685904857.649301</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09758745604257067</v>
+        <v>0.09828108283509872</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04980540043290604</v>
+        <v>0.04874316950975399</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2813494030.875861</v>
+        <v>2918266459.408425</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09359897586450799</v>
+        <v>0.09594172515656484</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04169289379935615</v>
+        <v>0.04557664026557917</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3988856998.727217</v>
+        <v>2904883644.906501</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1710550566344352</v>
+        <v>0.1842244836819012</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02760653147989086</v>
+        <v>0.0339918076932041</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1712455672.436918</v>
+        <v>1973443736.388449</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1630682490040063</v>
+        <v>0.1124967654556853</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03423752920102572</v>
+        <v>0.03311259801226495</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5319181981.123532</v>
+        <v>3791098357.88181</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08151775284992316</v>
+        <v>0.1015730283782852</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02675398273844835</v>
+        <v>0.03065036024037712</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1702141069.82181</v>
+        <v>1974811939.099552</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1130278214530494</v>
+        <v>0.1534045298700464</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02156581453431592</v>
+        <v>0.01970396723787151</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3109750561.112527</v>
+        <v>3081792844.516422</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1017289726949437</v>
+        <v>0.1105322639807199</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0410597010756403</v>
+        <v>0.05329100967086158</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1196766317.602785</v>
+        <v>1761218560.211046</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1067073934308591</v>
+        <v>0.1749696046250448</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03483461985392614</v>
+        <v>0.03022107657525253</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3428367280.065672</v>
+        <v>5508468064.518168</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1079779251422756</v>
+        <v>0.0811594362798899</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02646883519885763</v>
+        <v>0.02779139002699378</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4532802435.713283</v>
+        <v>3333708311.799833</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1191104314673189</v>
+        <v>0.1251211692981484</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03265130045785508</v>
+        <v>0.02873446092035088</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3656302816.694921</v>
+        <v>4547993467.978205</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2055686341847608</v>
+        <v>0.2108462269194921</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02172906055595852</v>
+        <v>0.02040428669350863</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2023440740.283983</v>
+        <v>2483428073.903111</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1445836827465281</v>
+        <v>0.1446638847842974</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03891268453518503</v>
+        <v>0.03547804108553509</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2116255624.928533</v>
+        <v>1862929315.588657</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1125062157345841</v>
+        <v>0.07398931050405326</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03192470411662073</v>
+        <v>0.03189770172026102</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3620333934.184959</v>
+        <v>2933875619.860096</v>
       </c>
       <c r="F85" t="n">
-        <v>0.16578531798592</v>
+        <v>0.1546180871029085</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05480192763375719</v>
+        <v>0.05637097952761718</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2413812783.249904</v>
+        <v>2620683937.41199</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1062626245874064</v>
+        <v>0.1290663186433521</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0214032731406155</v>
+        <v>0.01957805603683493</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>999359380.2127908</v>
+        <v>1483511616.306497</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1661558100822505</v>
+        <v>0.1791485283440747</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03712080096322816</v>
+        <v>0.03484401662152636</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3534793119.922951</v>
+        <v>3049885054.275113</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1745324866939965</v>
+        <v>0.160993040336151</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03872213673978438</v>
+        <v>0.03543975965587082</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2407095442.088866</v>
+        <v>3000948048.294743</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1469117285359948</v>
+        <v>0.1373476656478284</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03877693388137811</v>
+        <v>0.03761024917237945</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2042720093.386142</v>
+        <v>1728609208.877728</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1381707103400287</v>
+        <v>0.1218528825280703</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04718457732602081</v>
+        <v>0.03988651502842336</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1679457550.171063</v>
+        <v>1543089627.568952</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1794031248993193</v>
+        <v>0.1395283201460152</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05511646851944752</v>
+        <v>0.05265858242485336</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2150851859.423723</v>
+        <v>2555655088.629638</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08339201615700882</v>
+        <v>0.07088090795682953</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03805350818229125</v>
+        <v>0.02958610381896016</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4156239297.101866</v>
+        <v>4386427613.514275</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1269850104957734</v>
+        <v>0.1195550922596321</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03971530899985649</v>
+        <v>0.0408572985785778</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2306291393.931122</v>
+        <v>1987555497.633852</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1594046787664302</v>
+        <v>0.1658705613971074</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02845717356926922</v>
+        <v>0.0311788289832934</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2151074581.085201</v>
+        <v>2553829011.296684</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1176966448927596</v>
+        <v>0.08947223510165483</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04838374638448575</v>
+        <v>0.0510513083240459</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2338423239.401396</v>
+        <v>1821880297.449248</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08585445855300985</v>
+        <v>0.1056990274281138</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02921009861599108</v>
+        <v>0.04512656373672829</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3798893861.014423</v>
+        <v>4686389720.462811</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1541126921653574</v>
+        <v>0.169664633004177</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02296108571758584</v>
+        <v>0.01967454188123865</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2401442002.307897</v>
+        <v>2675719782.397019</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1285498979707384</v>
+        <v>0.08409802337656178</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03050997325449454</v>
+        <v>0.02953503289750312</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3066115513.737379</v>
+        <v>2376995576.312983</v>
       </c>
       <c r="F99" t="n">
-        <v>0.142407583614792</v>
+        <v>0.1411423967567177</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03025012105005675</v>
+        <v>0.02312383353382878</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4465915694.131602</v>
+        <v>4470274227.12898</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1745864884484467</v>
+        <v>0.1181784972306199</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02767572472840908</v>
+        <v>0.01766711892724517</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3222442454.234569</v>
+        <v>2409389900.251909</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1740902123790025</v>
+        <v>0.1389730374940956</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03525887867565882</v>
+        <v>0.04444844748448164</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_170.xlsx
+++ b/output/fit_clients/fit_round_170.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1684666107.443217</v>
+        <v>2335069710.209622</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09873235076333113</v>
+        <v>0.08409782998427648</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02744821107948608</v>
+        <v>0.0349563766357996</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2487393329.447701</v>
+        <v>2554670191.767237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1729606667900178</v>
+        <v>0.1651661944120888</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03556114738931296</v>
+        <v>0.0358196453938569</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3231871534.795249</v>
+        <v>3375134715.299109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1048122144154527</v>
+        <v>0.1360515481992517</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02512505357859493</v>
+        <v>0.02764785518333207</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>94</v>
+      </c>
+      <c r="J4" t="n">
+        <v>170</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2641694590.969803</v>
+        <v>3150927326.909143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1042252389451303</v>
+        <v>0.07215806964304251</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04088175898010118</v>
+        <v>0.03791052016178793</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70</v>
+      </c>
+      <c r="J5" t="n">
+        <v>169</v>
+      </c>
+      <c r="K5" t="n">
+        <v>95.79774414972802</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2523735828.585692</v>
+        <v>2469711011.554582</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1335569720008142</v>
+        <v>0.1128706147905031</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05535597455624033</v>
+        <v>0.03595714973469504</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2817009673.479422</v>
+        <v>1974987498.983814</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06864502217296685</v>
+        <v>0.06890692613549679</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04391258721814144</v>
+        <v>0.03271298736170674</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3395298386.143531</v>
+        <v>3150190896.710535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1711838109595032</v>
+        <v>0.1457855871908073</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0206904008039489</v>
+        <v>0.02089250200766872</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>49</v>
+      </c>
+      <c r="J8" t="n">
+        <v>169</v>
+      </c>
+      <c r="K8" t="n">
+        <v>85.67633734372707</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2219764558.832477</v>
+        <v>1744483236.730513</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1370261923821199</v>
+        <v>0.1960889893542189</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02420898307438582</v>
+        <v>0.02264023410655181</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5710788708.573225</v>
+        <v>4746470784.964458</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1745832458266907</v>
+        <v>0.1353613296711578</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03872622626928538</v>
+        <v>0.05121376135805862</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>156</v>
+      </c>
+      <c r="J10" t="n">
+        <v>170</v>
+      </c>
+      <c r="K10" t="n">
+        <v>143.9604186715669</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3693628377.78932</v>
+        <v>3771219298.042872</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1204565320562566</v>
+        <v>0.1275810815441958</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03918956264532961</v>
+        <v>0.03291167651859737</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>169</v>
+      </c>
+      <c r="K11" t="n">
+        <v>131.7152139239712</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2603422880.349855</v>
+        <v>2990831336.619286</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1821804520018939</v>
+        <v>0.1579453442272904</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03975915762013284</v>
+        <v>0.03547064271219256</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3614673479.884054</v>
+        <v>3382539187.070762</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1011949069777948</v>
+        <v>0.08297822078058266</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02593983159679859</v>
+        <v>0.0298563168055071</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>83</v>
+      </c>
+      <c r="J13" t="n">
+        <v>170</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3301904059.684021</v>
+        <v>2629564283.9583</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1377955036702195</v>
+        <v>0.1417455111143664</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02850146649008474</v>
+        <v>0.03455314461865256</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>169</v>
+      </c>
+      <c r="K14" t="n">
+        <v>58.80836323960659</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1790403085.48139</v>
+        <v>1229724043.841752</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09039972189951478</v>
+        <v>0.105508449540188</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03707771935428214</v>
+        <v>0.03796220648889342</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1909639872.048292</v>
+        <v>2674305164.913351</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09780438476806559</v>
+        <v>0.09349975028425517</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03422267162942363</v>
+        <v>0.05012435096558938</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4040630379.654673</v>
+        <v>5007483798.124264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1642669100421715</v>
+        <v>0.1343451288603622</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04436870397906087</v>
+        <v>0.03408563567820336</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>81</v>
+      </c>
+      <c r="J17" t="n">
+        <v>170</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1071,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3744928987.567765</v>
+        <v>3109183492.788911</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1118630068121775</v>
+        <v>0.1642101632961274</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03359721731413193</v>
+        <v>0.026956787146671</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>43</v>
+      </c>
+      <c r="J18" t="n">
+        <v>169</v>
+      </c>
+      <c r="K18" t="n">
+        <v>81.47507568961386</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1108,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1149453105.405686</v>
+        <v>879327857.1974846</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1377681670402858</v>
+        <v>0.1438803040079561</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01913412266013582</v>
+        <v>0.02316258509558912</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2598282962.986762</v>
+        <v>1789113428.986252</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1360957422274551</v>
+        <v>0.1407076328992889</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02080832900550153</v>
+        <v>0.02856497363264007</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2561261951.497887</v>
+        <v>2414878395.302617</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08339454291321126</v>
+        <v>0.09841522983494898</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03814462842495826</v>
+        <v>0.0438688419639665</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3757723738.470323</v>
+        <v>2969174654.641619</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09953882100318411</v>
+        <v>0.1061763690536879</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04010149295175516</v>
+        <v>0.04470260922550261</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>44</v>
+      </c>
+      <c r="J22" t="n">
+        <v>166</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>946988977.7448636</v>
+        <v>1273856843.11069</v>
       </c>
       <c r="F23" t="n">
-        <v>0.15703154749995</v>
+        <v>0.1424603895170308</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03552819256947234</v>
+        <v>0.04179314581641175</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4088374574.846271</v>
+        <v>3002027410.001109</v>
       </c>
       <c r="F24" t="n">
-        <v>0.139828476570442</v>
+        <v>0.1337174366839795</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03580270653989898</v>
+        <v>0.0268326667440369</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>51</v>
+      </c>
+      <c r="J24" t="n">
+        <v>168</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1407860532.510323</v>
+        <v>978846301.6128906</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1034476998461622</v>
+        <v>0.1095390143013147</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02823931840678214</v>
+        <v>0.03056156298215455</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>886437784.6348066</v>
+        <v>998874702.8374724</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08888469782688072</v>
+        <v>0.1245874047369276</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03800618371387917</v>
+        <v>0.0306493439765729</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1388,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4495914022.333637</v>
+        <v>3464619162.016921</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1026837004270282</v>
+        <v>0.1145604076892617</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02091123851199785</v>
+        <v>0.02667290064774432</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>68</v>
+      </c>
+      <c r="J27" t="n">
+        <v>169</v>
+      </c>
+      <c r="K27" t="n">
+        <v>87.99913711192772</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2421169426.132188</v>
+        <v>3238849639.265154</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1209437455921156</v>
+        <v>0.1297933276912857</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03190094927550503</v>
+        <v>0.04125401549223467</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>32</v>
+      </c>
+      <c r="J28" t="n">
+        <v>167</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3828401849.346516</v>
+        <v>4456535761.879435</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1486849132460191</v>
+        <v>0.1044904217542624</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04428571101575431</v>
+        <v>0.03907521548171975</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>159</v>
+      </c>
+      <c r="J29" t="n">
+        <v>170</v>
+      </c>
+      <c r="K29" t="n">
+        <v>150.634979627102</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2035620056.703709</v>
+        <v>1981062480.04801</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1037283992679957</v>
+        <v>0.08757479105368178</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03015287217861057</v>
+        <v>0.03515095685309658</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1357047425.501935</v>
+        <v>1501190705.698069</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1066965546201131</v>
+        <v>0.08709609720017365</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04872932084097367</v>
+        <v>0.03708587966652225</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1605785969.994237</v>
+        <v>1453110015.503909</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08045663864069759</v>
+        <v>0.09430202670054798</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02578403188916324</v>
+        <v>0.03611745655844626</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2263316074.001583</v>
+        <v>2634583606.578132</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1774542700778897</v>
+        <v>0.1298365467233715</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04452413134545455</v>
+        <v>0.03956888826394458</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1002318392.561622</v>
+        <v>1431233966.541305</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1206116129219071</v>
+        <v>0.1077016730245531</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02206547982874181</v>
+        <v>0.02001941992862463</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1267772858.021125</v>
+        <v>925943086.6026746</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1113794054227738</v>
+        <v>0.09424656750507106</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03989627325561258</v>
+        <v>0.04357188343866423</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2565190468.371792</v>
+        <v>2224696794.524418</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1742369779647343</v>
+        <v>0.1696177218110806</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01850517360478954</v>
+        <v>0.01852378240356621</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2542948291.790184</v>
+        <v>1887931859.268745</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07901784800711337</v>
+        <v>0.09267859085768007</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03992713543971636</v>
+        <v>0.03781817455416858</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1390119030.662764</v>
+        <v>1536143902.515885</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1078347796171539</v>
+        <v>0.09650306964558041</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02507881859679142</v>
+        <v>0.03481104489003107</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1995164682.229089</v>
+        <v>1426627042.220112</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1629342254223198</v>
+        <v>0.1827412862943163</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03156127421526757</v>
+        <v>0.02257804934622944</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1135620904.861778</v>
+        <v>1787104855.676279</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1216921855857701</v>
+        <v>0.1374507344219817</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05111344725324454</v>
+        <v>0.04820328291066598</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2247065490.903441</v>
+        <v>2909305453.294094</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1051860933269819</v>
+        <v>0.1218530894522682</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04324338062774588</v>
+        <v>0.03585190476621609</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3821041668.394934</v>
+        <v>3090317692.641293</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07953099741400996</v>
+        <v>0.1175966254921318</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0379701635641438</v>
+        <v>0.04502137563119066</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>63</v>
+      </c>
+      <c r="J42" t="n">
+        <v>166</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2441379564.191648</v>
+        <v>3041943585.790886</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1630585701126046</v>
+        <v>0.1420254019302958</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02407544322852336</v>
+        <v>0.02533275179344746</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1893843641.995869</v>
+        <v>2149091743.12307</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0885824377707394</v>
+        <v>0.08278024505811342</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02467312273781826</v>
+        <v>0.0290905904686656</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2423780421.745451</v>
+        <v>2094356376.170951</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1241195093926158</v>
+        <v>0.193760042665092</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05579020378604004</v>
+        <v>0.05535317105944268</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4181167617.861334</v>
+        <v>4742464112.640694</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1101422122894386</v>
+        <v>0.1223169726859614</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05816786460152928</v>
+        <v>0.05875597577742869</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>96</v>
+      </c>
+      <c r="J46" t="n">
+        <v>169</v>
+      </c>
+      <c r="K46" t="n">
+        <v>131.3265590023005</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5031049881.173019</v>
+        <v>4480030672.404802</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1281146400697817</v>
+        <v>0.1988648590485114</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05451305705426202</v>
+        <v>0.04646496195716755</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>75</v>
+      </c>
+      <c r="J47" t="n">
+        <v>170</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2977558117.665329</v>
+        <v>3860915428.040801</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07682260779381461</v>
+        <v>0.100897095112942</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02999605190808796</v>
+        <v>0.03470866094883665</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>77</v>
+      </c>
+      <c r="J48" t="n">
+        <v>170</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1751633679.173873</v>
+        <v>1890226304.725441</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1565332561989568</v>
+        <v>0.1502425416786496</v>
       </c>
       <c r="G49" t="n">
-        <v>0.027125884692898</v>
+        <v>0.04254879201465358</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3865856427.627355</v>
+        <v>2539928086.301883</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1689243228406513</v>
+        <v>0.1465491919475904</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05117864202262938</v>
+        <v>0.03225242118802928</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>55</v>
+      </c>
+      <c r="J50" t="n">
+        <v>163</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1140722286.888072</v>
+        <v>960290603.0737987</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1839198645141115</v>
+        <v>0.1967934063216973</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04693257966719529</v>
+        <v>0.04769597009989624</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5040341630.720068</v>
+        <v>3932274008.288924</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1207981559019586</v>
+        <v>0.1382928565170288</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05240565939275473</v>
+        <v>0.04715158519018008</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>121</v>
+      </c>
+      <c r="J52" t="n">
+        <v>169</v>
+      </c>
+      <c r="K52" t="n">
+        <v>132.1803313469697</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2653602411.811142</v>
+        <v>3706046249.442226</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1775574389593149</v>
+        <v>0.1697737493849762</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02851996068647093</v>
+        <v>0.03210800736544302</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>22</v>
+      </c>
+      <c r="J53" t="n">
+        <v>170</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3938206445.239832</v>
+        <v>3338379760.635363</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1492869402637131</v>
+        <v>0.125624481979414</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05001274601793987</v>
+        <v>0.050512412147828</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>83</v>
+      </c>
+      <c r="J54" t="n">
+        <v>170</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3057756411.996283</v>
+        <v>4222423477.57554</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1830438693791411</v>
+        <v>0.1975918689858473</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02430085007519213</v>
+        <v>0.0317239905776216</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>77</v>
+      </c>
+      <c r="J55" t="n">
+        <v>170</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1811722983.041623</v>
+        <v>1328200806.920503</v>
       </c>
       <c r="F56" t="n">
-        <v>0.163475855822565</v>
+        <v>0.1350499229633919</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03970419715891274</v>
+        <v>0.04336319995587279</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4198766231.285675</v>
+        <v>2950355059.793073</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1419190286925927</v>
+        <v>0.1510528749946423</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02495132624555872</v>
+        <v>0.02022048272751893</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>69</v>
+      </c>
+      <c r="J57" t="n">
+        <v>168</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1569212863.325446</v>
+        <v>1782276833.749305</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1602065897211412</v>
+        <v>0.1824444570160717</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03931299079930744</v>
+        <v>0.02668780747183372</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4232317841.138841</v>
+        <v>4823180749.073956</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1165842145113288</v>
+        <v>0.117345559976439</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04442372791910087</v>
+        <v>0.0341023787744484</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>82</v>
+      </c>
+      <c r="J59" t="n">
+        <v>169</v>
+      </c>
+      <c r="K59" t="n">
+        <v>121.9712698971356</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3170747969.149697</v>
+        <v>3611200112.221046</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1851750103668002</v>
+        <v>0.1499225443324421</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0284259414602024</v>
+        <v>0.02533235541997078</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2874351714.973248</v>
+        <v>2692560504.992745</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1376759842568693</v>
+        <v>0.1485307608377791</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0214375591544913</v>
+        <v>0.02645056152709625</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1313381609.962924</v>
+        <v>1785320671.194033</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1647569887013354</v>
+        <v>0.1277705345051937</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04341325238053936</v>
+        <v>0.0479211774283153</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4166389650.202704</v>
+        <v>4560332578.12908</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1052553451823804</v>
+        <v>0.07953892708774934</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03591696626024381</v>
+        <v>0.03005540487754958</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>83</v>
+      </c>
+      <c r="J63" t="n">
+        <v>170</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5158537815.68036</v>
+        <v>3899593366.932037</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1689763775735837</v>
+        <v>0.1625233491642162</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02943552866300289</v>
+        <v>0.0269064891618809</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>84</v>
+      </c>
+      <c r="J64" t="n">
+        <v>169</v>
+      </c>
+      <c r="K64" t="n">
+        <v>124.2705683498191</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5979409378.130845</v>
+        <v>4504781263.252751</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1688132020253198</v>
+        <v>0.1395199498810801</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02915457689177243</v>
+        <v>0.03237478024101786</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>140</v>
+      </c>
+      <c r="J65" t="n">
+        <v>170</v>
+      </c>
+      <c r="K65" t="n">
+        <v>133.4680831160019</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4771619181.84558</v>
+        <v>5732841934.904648</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1171170069282663</v>
+        <v>0.1258183184949153</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04721094530545544</v>
+        <v>0.03637109815512692</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>83</v>
+      </c>
+      <c r="J66" t="n">
+        <v>170</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3281657368.748603</v>
+        <v>2454175742.199735</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0893522560515667</v>
+        <v>0.07447186193320571</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03131466397479685</v>
+        <v>0.03105862879421985</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5554659745.017065</v>
+        <v>5766030084.010009</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1031283862445761</v>
+        <v>0.100519194408367</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04260599749748174</v>
+        <v>0.03649415558531589</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>85</v>
+      </c>
+      <c r="J68" t="n">
+        <v>170</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1614998347.782265</v>
+        <v>2444665642.235418</v>
       </c>
       <c r="F69" t="n">
-        <v>0.138897880272875</v>
+        <v>0.1221043362363502</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05711523739377651</v>
+        <v>0.04129349665850847</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2599984888.490036</v>
+        <v>2958586493.404688</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1007922763082937</v>
+        <v>0.07678846593484041</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03050866934248007</v>
+        <v>0.04258900458642903</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3959161401.715961</v>
+        <v>5484543677.615535</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1422468571214827</v>
+        <v>0.144267126032185</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02454085591968525</v>
+        <v>0.02982429063138973</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>134</v>
+      </c>
+      <c r="J71" t="n">
+        <v>170</v>
+      </c>
+      <c r="K71" t="n">
+        <v>132.7288229497624</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1685904857.649301</v>
+        <v>2262517834.58977</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09828108283509872</v>
+        <v>0.0841187538709639</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04874316950975399</v>
+        <v>0.04406871049882609</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2918266459.408425</v>
+        <v>2619151625.660146</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09594172515656484</v>
+        <v>0.08453607646842221</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04557664026557917</v>
+        <v>0.03580449648940382</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3049,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2904883644.906501</v>
+        <v>2584812619.886943</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1842244836819012</v>
+        <v>0.1611725998527909</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0339918076932041</v>
+        <v>0.02676568855620793</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>50</v>
+      </c>
+      <c r="J74" t="n">
+        <v>169</v>
+      </c>
+      <c r="K74" t="n">
+        <v>58.68098354208038</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1973443736.388449</v>
+        <v>1784592027.347731</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1124967654556853</v>
+        <v>0.1066464390212381</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03311259801226495</v>
+        <v>0.02668732732445919</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3791098357.88181</v>
+        <v>3788102132.350015</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1015730283782852</v>
+        <v>0.07539956721427389</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03065036024037712</v>
+        <v>0.02874111482465917</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>77</v>
+      </c>
+      <c r="J76" t="n">
+        <v>170</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1974811939.099552</v>
+        <v>1693173094.485253</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1534045298700464</v>
+        <v>0.1826736978953294</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01970396723787151</v>
+        <v>0.02144521420193128</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3081792844.516422</v>
+        <v>3427622790.442615</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1105322639807199</v>
+        <v>0.1030598941006916</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05329100967086158</v>
+        <v>0.05598520061888188</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>85</v>
+      </c>
+      <c r="J78" t="n">
+        <v>170</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1761218560.211046</v>
+        <v>1219964219.07152</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1749696046250448</v>
+        <v>0.1307010802192064</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03022107657525253</v>
+        <v>0.03718487059144791</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5508468064.518168</v>
+        <v>3644990043.785741</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0811594362798899</v>
+        <v>0.0945366449804293</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02779139002699378</v>
+        <v>0.02709273227730558</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>83</v>
+      </c>
+      <c r="J80" t="n">
+        <v>169</v>
+      </c>
+      <c r="K80" t="n">
+        <v>83.85428745849505</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3333708311.799833</v>
+        <v>4910369876.259105</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1251211692981484</v>
+        <v>0.08951193211666621</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02873446092035088</v>
+        <v>0.02508945530516972</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>78</v>
+      </c>
+      <c r="J81" t="n">
+        <v>169</v>
+      </c>
+      <c r="K81" t="n">
+        <v>114.0075156142477</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4547993467.978205</v>
+        <v>4594851838.667361</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2108462269194921</v>
+        <v>0.200035054350383</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02040428669350863</v>
+        <v>0.02798961623216538</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>125</v>
+      </c>
+      <c r="J82" t="n">
+        <v>170</v>
+      </c>
+      <c r="K82" t="n">
+        <v>140.6231533962813</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2483428073.903111</v>
+        <v>2095429978.674309</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1446638847842974</v>
+        <v>0.1204158384985622</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03547804108553509</v>
+        <v>0.0322032507882011</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1862929315.588657</v>
+        <v>1935157513.34711</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07398931050405326</v>
+        <v>0.1003068110153222</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03189770172026102</v>
+        <v>0.03428055137543944</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2933875619.860096</v>
+        <v>3442935207.798108</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1546180871029085</v>
+        <v>0.1505122785113206</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05637097952761718</v>
+        <v>0.04367459177678949</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>26</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2620683937.41199</v>
+        <v>2698295383.879276</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1290663186433521</v>
+        <v>0.1633713988760037</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01957805603683493</v>
+        <v>0.02079374322566337</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1483511616.306497</v>
+        <v>945824695.790274</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1791485283440747</v>
+        <v>0.1448421629881489</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03484401662152636</v>
+        <v>0.03464997388460565</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3049885054.275113</v>
+        <v>3299621275.881596</v>
       </c>
       <c r="F88" t="n">
-        <v>0.160993040336151</v>
+        <v>0.1174342405159331</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03543975965587082</v>
+        <v>0.02863352779836469</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3000948048.294743</v>
+        <v>2588743766.753623</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1373476656478284</v>
+        <v>0.1165402701530882</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03761024917237945</v>
+        <v>0.03966465563312817</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1728609208.877728</v>
+        <v>1669949794.271751</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1218528825280703</v>
+        <v>0.1106103833425117</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03988651502842336</v>
+        <v>0.03485512034336444</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1543089627.568952</v>
+        <v>2065864334.733745</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1395283201460152</v>
+        <v>0.184317834645701</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05265858242485336</v>
+        <v>0.03874420397126223</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2555655088.629638</v>
+        <v>1840484626.880471</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07088090795682953</v>
+        <v>0.09525820471730637</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02958610381896016</v>
+        <v>0.04005792112285692</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4386427613.514275</v>
+        <v>3130716176.416342</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1195550922596321</v>
+        <v>0.1258622598772104</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0408572985785778</v>
+        <v>0.05248528798201377</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>76</v>
+      </c>
+      <c r="J93" t="n">
+        <v>168</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1987555497.633852</v>
+        <v>1628467792.06974</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1658705613971074</v>
+        <v>0.1367238202393439</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0311788289832934</v>
+        <v>0.02732303520067625</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2553829011.296684</v>
+        <v>3028085216.469629</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08947223510165483</v>
+        <v>0.08902769360310206</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0510513083240459</v>
+        <v>0.04798402554620033</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1821880297.449248</v>
+        <v>2328948729.284715</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1056990274281138</v>
+        <v>0.1218259176698754</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04512656373672829</v>
+        <v>0.03941420175056847</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4686389720.462811</v>
+        <v>4363249890.901502</v>
       </c>
       <c r="F97" t="n">
-        <v>0.169664633004177</v>
+        <v>0.1737443308997908</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01967454188123865</v>
+        <v>0.02631891151231316</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>82</v>
+      </c>
+      <c r="J97" t="n">
+        <v>169</v>
+      </c>
+      <c r="K97" t="n">
+        <v>127.2776347333475</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2675719782.397019</v>
+        <v>3659591657.918836</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08409802337656178</v>
+        <v>0.1228441778316764</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02953503289750312</v>
+        <v>0.02978743541659808</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>41</v>
+      </c>
+      <c r="J98" t="n">
+        <v>169</v>
+      </c>
+      <c r="K98" t="n">
+        <v>102.362997940589</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2376995576.312983</v>
+        <v>3217249026.832344</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1411423967567177</v>
+        <v>0.1238879197429775</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02312383353382878</v>
+        <v>0.03149943063901263</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4470274227.12898</v>
+        <v>2926751092.35224</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1181784972306199</v>
+        <v>0.1566788614655395</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01766711892724517</v>
+        <v>0.02513184547562862</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>71</v>
+      </c>
+      <c r="J100" t="n">
+        <v>168</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2409389900.251909</v>
+        <v>2256109532.569295</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1389730374940956</v>
+        <v>0.1885228181117594</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04444844748448164</v>
+        <v>0.04088324505559295</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>167</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
